--- a/table/dredge/In.situ.TOU_env_d.xlsx
+++ b/table/dredge/In.situ.TOU_env_d.xlsx
@@ -444,7 +444,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="G2">
-        <v>5.685475234367288</v>
+        <v>5.685475234367289</v>
       </c>
       <c r="I2">
         <v>0.5573118766750473</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1671143046883306</v>
+        <v>0.1671143046883308</v>
       </c>
       <c r="O2">
         <v>0.5430316146323069</v>
@@ -473,22 +473,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>15.59092151141025</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B3">
-        <v>6.84464293028412</v>
+        <v>6.844642930284123</v>
       </c>
       <c r="C3">
-        <v>8.223229407539577</v>
+        <v>8.223229407539581</v>
       </c>
       <c r="D3">
-        <v>-4.033826627340773</v>
+        <v>-4.033826627340772</v>
       </c>
       <c r="F3">
-        <v>14.79838258192125</v>
+        <v>14.79838258192126</v>
       </c>
       <c r="H3">
-        <v>-17.47937224139648</v>
+        <v>-17.47937224139649</v>
       </c>
       <c r="I3">
         <v>0.6804241413750556</v>
@@ -506,7 +506,7 @@
         <v>0.8986761807367429</v>
       </c>
       <c r="N3">
-        <v>0.1066273395181353</v>
+        <v>0.1066273395181355</v>
       </c>
       <c r="O3">
         <v>0.6212434268148808</v>
@@ -520,7 +520,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D4">
-        <v>-0.902137679515136</v>
+        <v>-0.9021376795151379</v>
       </c>
       <c r="G4">
         <v>5.390268860477887</v>
@@ -541,7 +541,7 @@
         <v>1.653529607586421</v>
       </c>
       <c r="N4">
-        <v>0.07310620403686129</v>
+        <v>0.07310620403686141</v>
       </c>
       <c r="O4">
         <v>0.541163812439752</v>
@@ -555,7 +555,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="F5">
-        <v>0.5055140642324931</v>
+        <v>0.505514064232492</v>
       </c>
       <c r="G5">
         <v>5.467489980188673</v>
@@ -576,10 +576,10 @@
         <v>2.332533874423348</v>
       </c>
       <c r="N5">
-        <v>0.05206073929446419</v>
+        <v>0.05206073929446429</v>
       </c>
       <c r="O5">
-        <v>0.5316250532667644</v>
+        <v>0.5316250532667643</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C6">
-        <v>0.2855196321827019</v>
+        <v>0.2855196321827035</v>
       </c>
       <c r="G6">
         <v>5.811266718417707</v>
@@ -611,7 +611,7 @@
         <v>2.516440025923032</v>
       </c>
       <c r="N6">
-        <v>0.04748709664372766</v>
+        <v>0.04748709664372774</v>
       </c>
       <c r="O6">
         <v>0.5290075533417106</v>
@@ -625,31 +625,31 @@
         <v>15.59092151141022</v>
       </c>
       <c r="E7">
-        <v>-0.231301329595331</v>
+        <v>-0.2313013295953316</v>
       </c>
       <c r="G7">
-        <v>5.767907520216085</v>
+        <v>5.767907520216086</v>
       </c>
       <c r="I7">
-        <v>0.5581171256989326</v>
+        <v>0.5581171256989317</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7">
-        <v>-98.77421687330573</v>
+        <v>-98.77421687330576</v>
       </c>
       <c r="L7">
         <v>206.9770051751829</v>
       </c>
       <c r="M7">
-        <v>2.540903611041244</v>
+        <v>2.540903611041301</v>
       </c>
       <c r="N7">
-        <v>0.04690978232083991</v>
+        <v>0.04690978232083866</v>
       </c>
       <c r="O7">
-        <v>0.5286582674121947</v>
+        <v>0.5286582674121938</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="G8">
-        <v>5.712729407062604</v>
+        <v>5.712729407062605</v>
       </c>
       <c r="H8">
-        <v>0.1184612273716585</v>
+        <v>0.1184612273716591</v>
       </c>
       <c r="I8">
         <v>0.5575410154772026</v>
@@ -681,7 +681,7 @@
         <v>2.583899743853181</v>
       </c>
       <c r="N8">
-        <v>0.04591207551429648</v>
+        <v>0.04591207551429656</v>
       </c>
       <c r="O8">
         <v>0.5280437498423494</v>
@@ -695,10 +695,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B9">
-        <v>0.03095992408984723</v>
+        <v>0.03095992408984836</v>
       </c>
       <c r="G9">
-        <v>5.698230134003383</v>
+        <v>5.698230134003386</v>
       </c>
       <c r="I9">
         <v>0.557325597643069</v>
@@ -716,7 +716,7 @@
         <v>2.599962382032089</v>
       </c>
       <c r="N9">
-        <v>0.04554481774203286</v>
+        <v>0.04554481774203294</v>
       </c>
       <c r="O9">
         <v>0.5278139708192736</v>
@@ -727,25 +727,25 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>15.59092151141025</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B10">
-        <v>7.349200229175852</v>
+        <v>7.349200229175847</v>
       </c>
       <c r="C10">
-        <v>8.312390533664447</v>
+        <v>8.312390533664443</v>
       </c>
       <c r="D10">
         <v>-4.295527006475201</v>
       </c>
       <c r="E10">
-        <v>-1.065710139575633</v>
+        <v>-1.065710139575631</v>
       </c>
       <c r="F10">
-        <v>15.65703578989719</v>
+        <v>15.65703578989718</v>
       </c>
       <c r="H10">
-        <v>-18.31919566493573</v>
+        <v>-18.31919566493572</v>
       </c>
       <c r="I10">
         <v>0.6949865001217697</v>
@@ -763,7 +763,7 @@
         <v>2.879601149900253</v>
       </c>
       <c r="N10">
-        <v>0.03960191447985891</v>
+        <v>0.03960191447985898</v>
       </c>
       <c r="O10">
         <v>0.6245987693806396</v>
@@ -774,25 +774,25 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>15.59092151141025</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B11">
-        <v>5.55294902212123</v>
+        <v>5.552949022121235</v>
       </c>
       <c r="C11">
-        <v>6.954724458292432</v>
+        <v>6.954724458292436</v>
       </c>
       <c r="D11">
         <v>-3.402824424376793</v>
       </c>
       <c r="F11">
-        <v>11.84957671702381</v>
+        <v>11.84957671702382</v>
       </c>
       <c r="G11">
-        <v>1.555568454779825</v>
+        <v>1.555568454779821</v>
       </c>
       <c r="H11">
-        <v>-14.16292666855529</v>
+        <v>-14.1629266685553</v>
       </c>
       <c r="I11">
         <v>0.6913002352883505</v>
@@ -810,7 +810,7 @@
         <v>3.276034499073859</v>
       </c>
       <c r="N11">
-        <v>0.03248117815744642</v>
+        <v>0.03248117815744648</v>
       </c>
       <c r="O11">
         <v>0.6200618280472006</v>
@@ -824,13 +824,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C12">
-        <v>0.562099792020848</v>
+        <v>0.5620997920208509</v>
       </c>
       <c r="D12">
-        <v>-1.037394067228159</v>
+        <v>-1.037394067228158</v>
       </c>
       <c r="G12">
-        <v>5.593653435211853</v>
+        <v>5.593653435211857</v>
       </c>
       <c r="I12">
         <v>0.5739495060315463</v>
@@ -842,13 +842,13 @@
         <v>-98.17218158772451</v>
       </c>
       <c r="L12">
-        <v>208.5665853976713</v>
+        <v>208.5665853976712</v>
       </c>
       <c r="M12">
         <v>4.13048383352961</v>
       </c>
       <c r="N12">
-        <v>0.02118802409174128</v>
+        <v>0.02118802409174132</v>
       </c>
       <c r="O12">
         <v>0.529875317000327</v>
@@ -862,13 +862,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D13">
-        <v>-1.028837953330799</v>
+        <v>-1.028837953330801</v>
       </c>
       <c r="E13">
-        <v>-0.4986717767954931</v>
+        <v>-0.4986717767954927</v>
       </c>
       <c r="G13">
-        <v>5.526527807567589</v>
+        <v>5.526527807567587</v>
       </c>
       <c r="I13">
         <v>0.5733367995574293</v>
@@ -886,7 +886,7 @@
         <v>4.177907294084065</v>
       </c>
       <c r="N13">
-        <v>0.02069152902046322</v>
+        <v>0.02069152902046326</v>
       </c>
       <c r="O13">
         <v>0.5291992270978531</v>
@@ -900,13 +900,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D14">
-        <v>-0.8578089672342809</v>
+        <v>-0.8578089672342825</v>
       </c>
       <c r="F14">
-        <v>0.4016750071773969</v>
+        <v>0.4016750071773954</v>
       </c>
       <c r="G14">
-        <v>5.231566244409761</v>
+        <v>5.231566244409763</v>
       </c>
       <c r="I14">
         <v>0.5720752968230318</v>
@@ -924,7 +924,7 @@
         <v>4.275333481129763</v>
       </c>
       <c r="N14">
-        <v>0.01970773694422652</v>
+        <v>0.01970773694422655</v>
       </c>
       <c r="O14">
         <v>0.5278072240805869</v>
@@ -938,10 +938,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B15">
-        <v>-0.3001477904376244</v>
+        <v>-0.3001477904376246</v>
       </c>
       <c r="D15">
-        <v>-0.9950096236088425</v>
+        <v>-0.9950096236088435</v>
       </c>
       <c r="G15">
         <v>5.236223209911188</v>
@@ -959,10 +959,10 @@
         <v>208.7944162812889</v>
       </c>
       <c r="M15">
-        <v>4.358314717147295</v>
+        <v>4.358314717147294</v>
       </c>
       <c r="N15">
-        <v>0.01890678172095656</v>
+        <v>0.01890678172095659</v>
       </c>
       <c r="O15">
         <v>0.5266183620766181</v>
@@ -976,13 +976,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D16">
-        <v>-0.9351680753622534</v>
+        <v>-0.9351680753622552</v>
       </c>
       <c r="G16">
         <v>5.35152764074277</v>
       </c>
       <c r="H16">
-        <v>-0.1214104198841715</v>
+        <v>-0.1214104198841718</v>
       </c>
       <c r="I16">
         <v>0.5700649682212237</v>
@@ -1000,7 +1000,7 @@
         <v>4.429999710576595</v>
       </c>
       <c r="N16">
-        <v>0.01824111627762265</v>
+        <v>0.01824111627762268</v>
       </c>
       <c r="O16">
         <v>0.5255889304510054</v>
@@ -1014,13 +1014,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="F17">
-        <v>0.8764049867289362</v>
+        <v>0.8764049867289354</v>
       </c>
       <c r="G17">
         <v>5.198812552409134</v>
       </c>
       <c r="H17">
-        <v>-0.47265831722111</v>
+        <v>-0.4726583172211106</v>
       </c>
       <c r="I17">
         <v>0.5626156900875374</v>
@@ -1038,10 +1038,10 @@
         <v>4.996877933155616</v>
       </c>
       <c r="N17">
-        <v>0.01373900778964867</v>
+        <v>0.01373900778964869</v>
       </c>
       <c r="O17">
-        <v>0.5173690373379724</v>
+        <v>0.5173690373379723</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1052,16 +1052,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="E18">
-        <v>-0.2747328351648886</v>
+        <v>-0.2747328351648889</v>
       </c>
       <c r="F18">
-        <v>0.5296722554566956</v>
+        <v>0.5296722554566952</v>
       </c>
       <c r="G18">
-        <v>5.554983221159042</v>
+        <v>5.554983221159043</v>
       </c>
       <c r="I18">
-        <v>0.5620263400779088</v>
+        <v>0.5620263400779087</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1076,7 +1076,7 @@
         <v>5.041313590170375</v>
       </c>
       <c r="N18">
-        <v>0.01343712290227713</v>
+        <v>0.01343712290227716</v>
       </c>
       <c r="O18">
         <v>0.5167187200859682</v>
@@ -1090,13 +1090,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B19">
-        <v>0.2146825603947447</v>
+        <v>0.2146825603947449</v>
       </c>
       <c r="F19">
-        <v>0.5754239678961367</v>
+        <v>0.5754239678961366</v>
       </c>
       <c r="G19">
-        <v>5.525788910133749</v>
+        <v>5.52578891013375</v>
       </c>
       <c r="I19">
         <v>0.5614896406598564</v>
@@ -1114,7 +1114,7 @@
         <v>5.081727522701016</v>
       </c>
       <c r="N19">
-        <v>0.01316832436090608</v>
+        <v>0.01316832436090611</v>
       </c>
       <c r="O19">
         <v>0.5161265000384623</v>
@@ -1128,13 +1128,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C20">
-        <v>0.2057627206853314</v>
+        <v>0.2057627206853312</v>
       </c>
       <c r="F20">
         <v>0.4710218638741441</v>
       </c>
       <c r="G20">
-        <v>5.573016488543779</v>
+        <v>5.573016488543776</v>
       </c>
       <c r="I20">
         <v>0.5614700615124892</v>
@@ -1149,10 +1149,10 @@
         <v>209.51930247835</v>
       </c>
       <c r="M20">
-        <v>5.083200914208391</v>
+        <v>5.08320091420839</v>
       </c>
       <c r="N20">
-        <v>0.01315862688474957</v>
+        <v>0.01315862688474959</v>
       </c>
       <c r="O20">
         <v>0.5161048954620571</v>
@@ -1166,10 +1166,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C21">
-        <v>0.2420120830300595</v>
+        <v>0.2420120830300602</v>
       </c>
       <c r="E21">
-        <v>-0.1761067508893671</v>
+        <v>-0.1761067508893679</v>
       </c>
       <c r="G21">
         <v>5.854860357398822</v>
@@ -1181,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="K21">
-        <v>-98.74551654126771</v>
+        <v>-98.7455165412677</v>
       </c>
       <c r="L21">
         <v>209.7132553047576</v>
@@ -1190,7 +1190,7 @@
         <v>5.277153740616001</v>
       </c>
       <c r="N21">
-        <v>0.01194247254306517</v>
+        <v>0.01194247254306519</v>
       </c>
       <c r="O21">
         <v>0.5132524964416088</v>
@@ -1204,34 +1204,34 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C22">
-        <v>0.3249983246225391</v>
+        <v>0.3249983246225421</v>
       </c>
       <c r="G22">
-        <v>5.814653599840281</v>
+        <v>5.814653599840283</v>
       </c>
       <c r="H22">
-        <v>-0.06087870492833451</v>
+        <v>-0.06087870492833622</v>
       </c>
       <c r="I22">
-        <v>0.5584834426020924</v>
+        <v>0.5584834426020916</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
-        <v>-98.76053284990321</v>
+        <v>-98.76053284990324</v>
       </c>
       <c r="L22">
         <v>209.7432879220287</v>
       </c>
       <c r="M22">
-        <v>5.307186357887019</v>
+        <v>5.307186357887076</v>
       </c>
       <c r="N22">
-        <v>0.0117644804263675</v>
+        <v>0.01176448042636718</v>
       </c>
       <c r="O22">
-        <v>0.5128093159747227</v>
+        <v>0.5128093159747218</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -1242,16 +1242,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B23">
-        <v>-0.04238281306467916</v>
+        <v>-0.04238281306467952</v>
       </c>
       <c r="C23">
-        <v>0.2963269041285381</v>
+        <v>0.2963269041285383</v>
       </c>
       <c r="G23">
-        <v>5.798567169447551</v>
+        <v>5.79856716944755</v>
       </c>
       <c r="I23">
-        <v>0.5584686721112842</v>
+        <v>0.5584686721112841</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -1266,7 +1266,7 @@
         <v>5.30829032111447</v>
       </c>
       <c r="N23">
-        <v>0.01175798844137012</v>
+        <v>0.01175798844137014</v>
       </c>
       <c r="O23">
         <v>0.5127930175021067</v>
@@ -1280,13 +1280,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="E24">
-        <v>-0.2305493971704586</v>
+        <v>-0.2305493971704593</v>
       </c>
       <c r="G24">
-        <v>5.794579749176909</v>
+        <v>5.79457974917691</v>
       </c>
       <c r="H24">
-        <v>0.1170965611912577</v>
+        <v>0.1170965611912579</v>
       </c>
       <c r="I24">
         <v>0.5583410070695245</v>
@@ -1304,7 +1304,7 @@
         <v>5.317830612279579</v>
       </c>
       <c r="N24">
-        <v>0.01170203468462852</v>
+        <v>0.01170203468462854</v>
       </c>
       <c r="O24">
         <v>0.5126521457318891</v>
@@ -1318,13 +1318,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B25">
-        <v>0.0432826369786331</v>
+        <v>0.0432826369786339</v>
       </c>
       <c r="E25">
-        <v>-0.2334739935498332</v>
+        <v>-0.233473993549834</v>
       </c>
       <c r="G25">
-        <v>5.786513447574151</v>
+        <v>5.786513447574153</v>
       </c>
       <c r="I25">
         <v>0.5581438717862228</v>
@@ -1342,7 +1342,7 @@
         <v>5.332556935126178</v>
       </c>
       <c r="N25">
-        <v>0.01161618715672725</v>
+        <v>0.01161618715672726</v>
       </c>
       <c r="O25">
         <v>0.5124346171434183</v>
@@ -1356,13 +1356,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B26">
-        <v>-0.008207553134916839</v>
+        <v>-0.008207553134915597</v>
       </c>
       <c r="G26">
-        <v>5.709884821503659</v>
+        <v>5.709884821503661</v>
       </c>
       <c r="H26">
-        <v>0.1207943179086206</v>
+        <v>0.1207943179086201</v>
       </c>
       <c r="I26">
         <v>0.5575418908965959</v>
@@ -1380,7 +1380,7 @@
         <v>5.37748524587343</v>
       </c>
       <c r="N26">
-        <v>0.01135814848525156</v>
+        <v>0.01135814848525158</v>
       </c>
       <c r="O26">
         <v>0.5117703623686576</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>15.59092151141024</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B27">
-        <v>6.105860410463124</v>
+        <v>6.105860410463122</v>
       </c>
       <c r="C27">
-        <v>7.107087005355766</v>
+        <v>7.107087005355762</v>
       </c>
       <c r="D27">
-        <v>-3.687557483600667</v>
+        <v>-3.687557483600663</v>
       </c>
       <c r="E27">
-        <v>-1.024493084681275</v>
+        <v>-1.024493084681274</v>
       </c>
       <c r="F27">
         <v>12.82995709432336</v>
@@ -1412,10 +1412,10 @@
         <v>1.473835776675533</v>
       </c>
       <c r="H27">
-        <v>-15.14452204158702</v>
+        <v>-15.14452204158701</v>
       </c>
       <c r="I27">
-        <v>0.7047279333082154</v>
+        <v>0.7047279333082155</v>
       </c>
       <c r="J27">
         <v>9</v>
@@ -1430,10 +1430,10 @@
         <v>5.63454618076014</v>
       </c>
       <c r="N27">
-        <v>0.009988205502171159</v>
+        <v>0.009988205502171178</v>
       </c>
       <c r="O27">
-        <v>0.6220517546345157</v>
+        <v>0.6220517546345159</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -1441,22 +1441,22 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C28">
-        <v>3.502300880610527</v>
+        <v>3.502300880610531</v>
       </c>
       <c r="D28">
-        <v>-2.666228690864319</v>
+        <v>-2.666228690864322</v>
       </c>
       <c r="F28">
-        <v>3.30517526635192</v>
+        <v>3.305175266351923</v>
       </c>
       <c r="G28">
-        <v>3.843162390814834</v>
+        <v>3.843162390814831</v>
       </c>
       <c r="H28">
-        <v>-4.727343939562413</v>
+        <v>-4.727343939562415</v>
       </c>
       <c r="I28">
         <v>0.6225416657114758</v>
@@ -1474,7 +1474,7 @@
         <v>6.39203817673112</v>
       </c>
       <c r="N28">
-        <v>0.006839119184369622</v>
+        <v>0.006839119184369634</v>
       </c>
       <c r="O28">
         <v>0.552641974176564</v>
@@ -1488,16 +1488,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C29">
-        <v>1.33302267456473</v>
+        <v>1.333022674564734</v>
       </c>
       <c r="D29">
         <v>-1.495124901243927</v>
       </c>
       <c r="G29">
-        <v>5.553303712927851</v>
+        <v>5.553303712927855</v>
       </c>
       <c r="H29">
-        <v>-1.000625900148911</v>
+        <v>-1.000625900148912</v>
       </c>
       <c r="I29">
         <v>0.5814295057158944</v>
@@ -1509,16 +1509,16 @@
         <v>-97.87992453219421</v>
       </c>
       <c r="L29">
-        <v>210.9906182951577</v>
+        <v>210.9906182951576</v>
       </c>
       <c r="M29">
         <v>6.554516731016008</v>
       </c>
       <c r="N29">
-        <v>0.006305483628239104</v>
+        <v>0.006305483628239115</v>
       </c>
       <c r="O29">
-        <v>0.521633720818165</v>
+        <v>0.5216337208181649</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -1529,37 +1529,37 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B30">
-        <v>-0.58206932417475</v>
+        <v>-0.5820693241747507</v>
       </c>
       <c r="C30">
-        <v>0.7720067312717749</v>
+        <v>0.7720067312717757</v>
       </c>
       <c r="D30">
         <v>-1.268007651491538</v>
       </c>
       <c r="G30">
-        <v>5.370867074827527</v>
+        <v>5.370867074827526</v>
       </c>
       <c r="I30">
-        <v>0.5777271185633017</v>
+        <v>0.5777271185633011</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-98.0252305061415</v>
+        <v>-98.02523050614153</v>
       </c>
       <c r="L30">
-        <v>211.2812302430522</v>
+        <v>211.2812302430523</v>
       </c>
       <c r="M30">
-        <v>6.845128678910584</v>
+        <v>6.84512867891064</v>
       </c>
       <c r="N30">
-        <v>0.005452715263191322</v>
+        <v>0.005452715263191177</v>
       </c>
       <c r="O30">
-        <v>0.517402421215202</v>
+        <v>0.5174024212152012</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D31">
-        <v>-1.017710433842248</v>
+        <v>-1.01771043384225</v>
       </c>
       <c r="F31">
         <v>1.0498416320848</v>
@@ -1579,7 +1579,7 @@
         <v>4.704027551682015</v>
       </c>
       <c r="H31">
-        <v>-0.850682097233426</v>
+        <v>-0.8506820972334271</v>
       </c>
       <c r="I31">
         <v>0.5772493216641114</v>
@@ -1597,7 +1597,7 @@
         <v>6.882446690157082</v>
       </c>
       <c r="N31">
-        <v>0.005351916346691274</v>
+        <v>0.005351916346691283</v>
       </c>
       <c r="O31">
         <v>0.5168563676161273</v>
@@ -1611,16 +1611,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C32">
-        <v>0.4829523372287621</v>
+        <v>0.4829523372287633</v>
       </c>
       <c r="D32">
         <v>-1.123301510306781</v>
       </c>
       <c r="E32">
-        <v>-0.4130758920240241</v>
+        <v>-0.4130758920240247</v>
       </c>
       <c r="G32">
-        <v>5.677885917077081</v>
+        <v>5.677885917077082</v>
       </c>
       <c r="I32">
         <v>0.5762667030424925</v>
@@ -1638,7 +1638,7 @@
         <v>6.959061085762585</v>
       </c>
       <c r="N32">
-        <v>0.005150776575214926</v>
+        <v>0.005150776575214935</v>
       </c>
       <c r="O32">
         <v>0.5157333749057057</v>
@@ -1652,16 +1652,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D33">
-        <v>-0.9874281486233111</v>
+        <v>-0.9874281486233122</v>
       </c>
       <c r="E33">
-        <v>-0.5233332718160917</v>
+        <v>-0.5233332718160927</v>
       </c>
       <c r="F33">
-        <v>0.4320028835165756</v>
+        <v>0.432002883516577</v>
       </c>
       <c r="G33">
-        <v>5.362581185008231</v>
+        <v>5.362581185008233</v>
       </c>
       <c r="I33">
         <v>0.5759125927625273</v>
@@ -1679,7 +1679,7 @@
         <v>6.986627385713859</v>
       </c>
       <c r="N33">
-        <v>0.005080269669029114</v>
+        <v>0.005080269669029123</v>
       </c>
       <c r="O33">
         <v>0.5153286774428882</v>
@@ -1696,13 +1696,13 @@
         <v>0.4978805351394713</v>
       </c>
       <c r="D34">
-        <v>-0.9885699669264521</v>
+        <v>-0.9885699669264524</v>
       </c>
       <c r="F34">
-        <v>0.3023860056780792</v>
+        <v>0.3023860056780805</v>
       </c>
       <c r="G34">
-        <v>5.450943651995152</v>
+        <v>5.450943651995149</v>
       </c>
       <c r="I34">
         <v>0.575162073365749</v>
@@ -1720,7 +1720,7 @@
         <v>7.044976796570523</v>
       </c>
       <c r="N34">
-        <v>0.00493419549438276</v>
+        <v>0.004934195494382769</v>
       </c>
       <c r="O34">
         <v>0.5144709409894275</v>
@@ -1734,16 +1734,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B35">
-        <v>-0.3181727689772212</v>
+        <v>-0.3181727689772215</v>
       </c>
       <c r="D35">
-        <v>-1.129902365657663</v>
+        <v>-1.129902365657664</v>
       </c>
       <c r="E35">
-        <v>-0.5089646488910998</v>
+        <v>-0.5089646488910994</v>
       </c>
       <c r="G35">
-        <v>5.366043612202997</v>
+        <v>5.366043612202996</v>
       </c>
       <c r="I35">
         <v>0.5746352408914259</v>
@@ -1761,7 +1761,7 @@
         <v>7.085874041826003</v>
       </c>
       <c r="N35">
-        <v>0.004834322604363932</v>
+        <v>0.00483432260436394</v>
       </c>
       <c r="O35">
         <v>0.5138688467330582</v>
@@ -1775,16 +1775,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D36">
-        <v>-1.075879988688594</v>
+        <v>-1.075879988688596</v>
       </c>
       <c r="E36">
         <v>-0.5119277406664821</v>
       </c>
       <c r="G36">
-        <v>5.478924832870012</v>
+        <v>5.478924832870011</v>
       </c>
       <c r="H36">
-        <v>-0.1605333801854932</v>
+        <v>-0.1605333801854928</v>
       </c>
       <c r="I36">
         <v>0.5737257658931978</v>
@@ -1802,7 +1802,7 @@
         <v>7.156356221692818</v>
       </c>
       <c r="N36">
-        <v>0.004666922806959608</v>
+        <v>0.004666922806959617</v>
       </c>
       <c r="O36">
         <v>0.5128294467350831</v>
@@ -1813,19 +1813,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="B37">
-        <v>1.652866021988189</v>
+        <v>1.65286602198819</v>
       </c>
       <c r="F37">
-        <v>2.803008488415977</v>
+        <v>2.803008488415978</v>
       </c>
       <c r="G37">
         <v>4.641920393036913</v>
       </c>
       <c r="H37">
-        <v>-2.241964051778421</v>
+        <v>-2.241964051778422</v>
       </c>
       <c r="I37">
         <v>0.5735950662448527</v>
@@ -1843,7 +1843,7 @@
         <v>7.166472778052423</v>
       </c>
       <c r="N37">
-        <v>0.004643375816977588</v>
+        <v>0.004643375816977597</v>
       </c>
       <c r="O37">
         <v>0.5126800757084031</v>
@@ -1857,16 +1857,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B38">
-        <v>-0.1648054572737161</v>
+        <v>-0.1648054572737145</v>
       </c>
       <c r="D38">
-        <v>-0.9154966063397949</v>
+        <v>-0.9154966063397943</v>
       </c>
       <c r="F38">
-        <v>0.3410240652266875</v>
+        <v>0.3410240652266889</v>
       </c>
       <c r="G38">
-        <v>5.17094601135546</v>
+        <v>5.170946011355462</v>
       </c>
       <c r="I38">
         <v>0.5723731262137026</v>
@@ -1875,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-98.23311865257026</v>
+        <v>-98.23311865257025</v>
       </c>
       <c r="L38">
         <v>211.6970065359097</v>
@@ -1884,7 +1884,7 @@
         <v>7.260904971768099</v>
       </c>
       <c r="N38">
-        <v>0.004429229103337143</v>
+        <v>0.004429229103337151</v>
       </c>
       <c r="O38">
         <v>0.5112835728156602</v>
@@ -1898,7 +1898,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B39">
-        <v>-0.2848629235467865</v>
+        <v>-0.2848629235467867</v>
       </c>
       <c r="D39">
         <v>-1.006240314961476</v>
@@ -1907,7 +1907,7 @@
         <v>5.225348311442777</v>
       </c>
       <c r="H39">
-        <v>-0.05866499488438431</v>
+        <v>-0.05866499488438421</v>
       </c>
       <c r="I39">
         <v>0.5710471650176721</v>
@@ -1925,7 +1925,7 @@
         <v>7.36307118927553</v>
       </c>
       <c r="N39">
-        <v>0.004208652153432341</v>
+        <v>0.004208652153432348</v>
       </c>
       <c r="O39">
         <v>0.5097681885916252</v>
@@ -1939,16 +1939,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C40">
-        <v>0.9034526767894406</v>
+        <v>0.90345267678944</v>
       </c>
       <c r="F40">
-        <v>1.385719615232284</v>
+        <v>1.385719615232283</v>
       </c>
       <c r="G40">
-        <v>5.183490414772085</v>
+        <v>5.183490414772082</v>
       </c>
       <c r="H40">
-        <v>-1.314723425448528</v>
+        <v>-1.314723425448526</v>
       </c>
       <c r="I40">
         <v>0.5681846138503477</v>
@@ -1966,7 +1966,7 @@
         <v>7.582560093363725</v>
       </c>
       <c r="N40">
-        <v>0.00377121786652224</v>
+        <v>0.003771217866522246</v>
       </c>
       <c r="O40">
         <v>0.5064967015432544</v>
@@ -1977,22 +1977,22 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B41">
-        <v>4.09318630560507</v>
+        <v>4.093186305605065</v>
       </c>
       <c r="C41">
-        <v>2.919063565456898</v>
+        <v>2.919063565456893</v>
       </c>
       <c r="F41">
-        <v>7.293079627327116</v>
+        <v>7.293079627327111</v>
       </c>
       <c r="G41">
-        <v>3.770209113773989</v>
+        <v>3.770209113773991</v>
       </c>
       <c r="H41">
-        <v>-7.574917752273234</v>
+        <v>-7.574917752273223</v>
       </c>
       <c r="I41">
         <v>0.6077984508858452</v>
@@ -2010,7 +2010,7 @@
         <v>7.656455409132519</v>
       </c>
       <c r="N41">
-        <v>0.003634422887573863</v>
+        <v>0.003634422887573869</v>
       </c>
       <c r="O41">
         <v>0.535168534383224</v>
@@ -2024,16 +2024,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="E42">
-        <v>-0.3114994183828325</v>
+        <v>-0.3114994183828328</v>
       </c>
       <c r="F42">
-        <v>0.9376661036580419</v>
+        <v>0.9376661036580413</v>
       </c>
       <c r="G42">
-        <v>5.273478987529744</v>
+        <v>5.273478987529745</v>
       </c>
       <c r="H42">
-        <v>-0.5158216737274696</v>
+        <v>-0.5158216737274695</v>
       </c>
       <c r="I42">
         <v>0.5640512951711354</v>
@@ -2051,7 +2051,7 @@
         <v>7.896932511826179</v>
       </c>
       <c r="N42">
-        <v>0.003222675069480357</v>
+        <v>0.003222675069480363</v>
       </c>
       <c r="O42">
         <v>0.5017729087670119</v>
@@ -2065,16 +2065,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B43">
-        <v>0.2411593809509115</v>
+        <v>0.2411593809509129</v>
       </c>
       <c r="E43">
-        <v>-0.2934124031630943</v>
+        <v>-0.293412403163096</v>
       </c>
       <c r="F43">
-        <v>0.6098467120289636</v>
+        <v>0.6098467120289648</v>
       </c>
       <c r="G43">
-        <v>5.62642098279432</v>
+        <v>5.626420982794323</v>
       </c>
       <c r="I43">
         <v>0.5627670849651549</v>
@@ -2092,7 +2092,7 @@
         <v>7.994000444519685</v>
       </c>
       <c r="N43">
-        <v>0.003070000778656455</v>
+        <v>0.00307000077865646</v>
       </c>
       <c r="O43">
         <v>0.5003052399601771</v>
@@ -2106,16 +2106,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C44">
-        <v>0.1409518906509526</v>
+        <v>0.1409518906509546</v>
       </c>
       <c r="E44">
-        <v>-0.2404016353488107</v>
+        <v>-0.2404016353488118</v>
       </c>
       <c r="F44">
-        <v>0.5030254971191024</v>
+        <v>0.5030254971190995</v>
       </c>
       <c r="G44">
-        <v>5.616337808173466</v>
+        <v>5.616337808173469</v>
       </c>
       <c r="I44">
         <v>0.5622769417501956</v>
@@ -2133,7 +2133,7 @@
         <v>8.030973111212603</v>
       </c>
       <c r="N44">
-        <v>0.003013769081236975</v>
+        <v>0.00301376908123698</v>
       </c>
       <c r="O44">
         <v>0.4997450762859378</v>
@@ -2147,16 +2147,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B45">
-        <v>0.1630383822992275</v>
+        <v>0.1630383822992278</v>
       </c>
       <c r="C45">
-        <v>0.1537221280345157</v>
+        <v>0.1537221280345176</v>
       </c>
       <c r="F45">
-        <v>0.5328378090657666</v>
+        <v>0.5328378090657657</v>
       </c>
       <c r="G45">
-        <v>5.590601694109435</v>
+        <v>5.590601694109439</v>
       </c>
       <c r="I45">
         <v>0.5617744465520974</v>
@@ -2174,10 +2174,10 @@
         <v>8.068834563664922</v>
       </c>
       <c r="N45">
-        <v>0.002957252878046695</v>
+        <v>0.0029572528780467</v>
       </c>
       <c r="O45">
-        <v>0.4991707960595399</v>
+        <v>0.4991707960595398</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -2188,16 +2188,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C46">
-        <v>0.2597696112507412</v>
+        <v>0.2597696112507415</v>
       </c>
       <c r="E46">
-        <v>-0.1722232136132522</v>
+        <v>-0.172223213613253</v>
       </c>
       <c r="G46">
         <v>5.855340132934664</v>
       </c>
       <c r="H46">
-        <v>-0.0259037477003878</v>
+        <v>-0.02590374770038687</v>
       </c>
       <c r="I46">
         <v>0.5588918964681626</v>
@@ -2215,10 +2215,10 @@
         <v>8.285190420742168</v>
       </c>
       <c r="N46">
-        <v>0.002654039521570486</v>
+        <v>0.002654039521570491</v>
       </c>
       <c r="O46">
-        <v>0.4958764531064716</v>
+        <v>0.4958764531064715</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -2229,37 +2229,37 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B47">
-        <v>-0.02126492341267765</v>
+        <v>-0.02126492341267736</v>
       </c>
       <c r="C47">
-        <v>0.2480376848047073</v>
+        <v>0.2480376848047079</v>
       </c>
       <c r="E47">
-        <v>-0.1736650816789772</v>
+        <v>-0.1736650816789774</v>
       </c>
       <c r="G47">
         <v>5.847884141173195</v>
       </c>
       <c r="I47">
-        <v>0.5588910547976607</v>
+        <v>0.5588910547976613</v>
       </c>
       <c r="J47">
         <v>6</v>
       </c>
       <c r="K47">
-        <v>-98.74529286038286</v>
+        <v>-98.74529286038283</v>
       </c>
       <c r="L47">
-        <v>212.721354951535</v>
+        <v>212.7213549515349</v>
       </c>
       <c r="M47">
-        <v>8.285253387393311</v>
+        <v>8.285253387393254</v>
       </c>
       <c r="N47">
-        <v>0.002653955964895477</v>
+        <v>0.002653955964895557</v>
       </c>
       <c r="O47">
-        <v>0.4958754911973264</v>
+        <v>0.4958754911973272</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -2270,25 +2270,25 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B48">
-        <v>-0.03303326800064695</v>
+        <v>-0.03303326800064763</v>
       </c>
       <c r="C48">
-        <v>0.3286328321975133</v>
+        <v>0.3286328321975132</v>
       </c>
       <c r="G48">
-        <v>5.804344716690685</v>
+        <v>5.804344716690684</v>
       </c>
       <c r="H48">
-        <v>-0.05349420872815466</v>
+        <v>-0.05349420872815366</v>
       </c>
       <c r="I48">
-        <v>0.5584975052489311</v>
+        <v>0.558497505248931</v>
       </c>
       <c r="J48">
         <v>6</v>
       </c>
       <c r="K48">
-        <v>-98.76000730365981</v>
+        <v>-98.7600073036598</v>
       </c>
       <c r="L48">
         <v>212.7507838380888</v>
@@ -2297,7 +2297,7 @@
         <v>8.314682273947199</v>
       </c>
       <c r="N48">
-        <v>0.0026151903867817</v>
+        <v>0.002615190386781705</v>
       </c>
       <c r="O48">
         <v>0.4954257202844926</v>
@@ -2311,16 +2311,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B49">
-        <v>0.005701539988590819</v>
+        <v>0.005701539988591466</v>
       </c>
       <c r="E49">
-        <v>-0.2308460168221719</v>
+        <v>-0.2308460168221729</v>
       </c>
       <c r="G49">
-        <v>5.796661103901799</v>
+        <v>5.796661103901801</v>
       </c>
       <c r="H49">
-        <v>0.1154740777086127</v>
+        <v>0.1154740777086126</v>
       </c>
       <c r="I49">
         <v>0.5583414281931651</v>
@@ -2338,7 +2338,7 @@
         <v>8.32634615517776</v>
       </c>
       <c r="N49">
-        <v>0.002599983138733897</v>
+        <v>0.002599983138733902</v>
       </c>
       <c r="O49">
         <v>0.4952473465064744</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>15.59092151141022</v>
+        <v>15.59092151141023</v>
       </c>
       <c r="B50">
-        <v>-0.6065640871602314</v>
+        <v>-0.606564087160232</v>
       </c>
       <c r="C50">
         <v>1.568474390515891</v>
@@ -2361,10 +2361,10 @@
         <v>-1.745365525229484</v>
       </c>
       <c r="G50">
-        <v>5.320267342424375</v>
+        <v>5.320267342424374</v>
       </c>
       <c r="H50">
-        <v>-1.022316641291424</v>
+        <v>-1.022316641291423</v>
       </c>
       <c r="I50">
         <v>0.5855282337781094</v>
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="K50">
-        <v>-97.71755687819064</v>
+        <v>-97.71755687819063</v>
       </c>
       <c r="L50">
         <v>213.9151137563813</v>
@@ -2382,10 +2382,10 @@
         <v>9.479012192239622</v>
       </c>
       <c r="N50">
-        <v>0.0014610742332571</v>
+        <v>0.001461074233257103</v>
       </c>
       <c r="O50">
-        <v>0.5087742029962779</v>
+        <v>0.5087742029962778</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -2393,46 +2393,46 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C51">
-        <v>3.413022945552288</v>
+        <v>3.413022945552289</v>
       </c>
       <c r="D51">
         <v>-2.764831814514221</v>
       </c>
       <c r="E51">
-        <v>-0.4778768242359771</v>
+        <v>-0.4778768242359784</v>
       </c>
       <c r="F51">
-        <v>3.365631070960402</v>
+        <v>3.3656310709604</v>
       </c>
       <c r="G51">
-        <v>3.911285277675094</v>
+        <v>3.911285277675098</v>
       </c>
       <c r="H51">
-        <v>-4.746975584100227</v>
+        <v>-4.746975584100224</v>
       </c>
       <c r="I51">
-        <v>0.6256115515585348</v>
+        <v>0.6256115515585341</v>
       </c>
       <c r="J51">
         <v>8</v>
       </c>
       <c r="K51">
-        <v>-96.03932593287411</v>
+        <v>-96.03932593287414</v>
       </c>
       <c r="L51">
-        <v>214.0786518657482</v>
+        <v>214.0786518657483</v>
       </c>
       <c r="M51">
-        <v>9.642550301606576</v>
+        <v>9.642550301606633</v>
       </c>
       <c r="N51">
-        <v>0.001346357619758457</v>
+        <v>0.001346357619758421</v>
       </c>
       <c r="O51">
-        <v>0.5392142173028121</v>
+        <v>0.5392142173028112</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -2443,19 +2443,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C52">
-        <v>1.236089222650247</v>
+        <v>1.236089222650248</v>
       </c>
       <c r="D52">
         <v>-1.553140734649122</v>
       </c>
       <c r="E52">
-        <v>-0.3592076243638684</v>
+        <v>-0.359207624363869</v>
       </c>
       <c r="G52">
-        <v>5.628022761604479</v>
+        <v>5.62802276160448</v>
       </c>
       <c r="H52">
-        <v>-0.9641436190342102</v>
+        <v>-0.9641436190342094</v>
       </c>
       <c r="I52">
         <v>0.58317180568885</v>
@@ -2473,7 +2473,7 @@
         <v>9.666098295727323</v>
       </c>
       <c r="N52">
-        <v>0.001330598564687382</v>
+        <v>0.001330598564687385</v>
       </c>
       <c r="O52">
         <v>0.5059813993349334</v>
@@ -2487,19 +2487,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D53">
-        <v>-1.209386860796639</v>
+        <v>-1.20938686079664</v>
       </c>
       <c r="E53">
-        <v>-0.6513575445667238</v>
+        <v>-0.6513575445667248</v>
       </c>
       <c r="F53">
-        <v>1.210606240435987</v>
+        <v>1.210606240435989</v>
       </c>
       <c r="G53">
-        <v>4.766969789123969</v>
+        <v>4.76696978912397</v>
       </c>
       <c r="H53">
-        <v>-1.012135686782957</v>
+        <v>-1.012135686782958</v>
       </c>
       <c r="I53">
         <v>0.5830073387045935</v>
@@ -2514,10 +2514,10 @@
         <v>214.115218029214</v>
       </c>
       <c r="M53">
-        <v>9.679116465072355</v>
+        <v>9.679116465072354</v>
       </c>
       <c r="N53">
-        <v>0.0013219657124277</v>
+        <v>0.001321965712427703</v>
       </c>
       <c r="O53">
         <v>0.5057864755017405</v>
@@ -2528,22 +2528,22 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="B54">
-        <v>1.18727019423179</v>
+        <v>1.187270194231792</v>
       </c>
       <c r="D54">
-        <v>-0.8277528379587679</v>
+        <v>-0.8277528379587675</v>
       </c>
       <c r="F54">
-        <v>2.401367914638494</v>
+        <v>2.401367914638496</v>
       </c>
       <c r="G54">
-        <v>4.396358909237925</v>
+        <v>4.396358909237926</v>
       </c>
       <c r="H54">
-        <v>-2.051033241131374</v>
+        <v>-2.051033241131375</v>
       </c>
       <c r="I54">
         <v>0.5824045220868452</v>
@@ -2561,7 +2561,7 @@
         <v>9.726787767624018</v>
       </c>
       <c r="N54">
-        <v>0.001290828362395571</v>
+        <v>0.001290828362395573</v>
       </c>
       <c r="O54">
         <v>0.5050720261770018</v>
@@ -2575,19 +2575,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B55">
-        <v>-0.5663669130719812</v>
+        <v>-0.5663669130719796</v>
       </c>
       <c r="C55">
-        <v>0.690742422886127</v>
+        <v>0.6907424228861285</v>
       </c>
       <c r="D55">
         <v>-1.343845236071326</v>
       </c>
       <c r="E55">
-        <v>-0.3945702299150986</v>
+        <v>-0.394570229915099</v>
       </c>
       <c r="G55">
-        <v>5.457336049297857</v>
+        <v>5.457336049297862</v>
       </c>
       <c r="I55">
         <v>0.5798385977423225</v>
@@ -2605,7 +2605,7 @@
         <v>9.928936553642529</v>
       </c>
       <c r="N55">
-        <v>0.001166735596354679</v>
+        <v>0.001166735596354681</v>
       </c>
       <c r="O55">
         <v>0.5020309306575674</v>
@@ -2616,22 +2616,22 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B56">
-        <v>2.00933238743758</v>
+        <v>2.009332387437583</v>
       </c>
       <c r="E56">
-        <v>-0.6235288897927557</v>
+        <v>-0.623528889792758</v>
       </c>
       <c r="F56">
-        <v>3.341137092371809</v>
+        <v>3.341137092371814</v>
       </c>
       <c r="G56">
-        <v>4.671277827561971</v>
+        <v>4.671277827561972</v>
       </c>
       <c r="H56">
-        <v>-2.709942619888469</v>
+        <v>-2.709942619888472</v>
       </c>
       <c r="I56">
         <v>0.5788365931635675</v>
@@ -2649,7 +2649,7 @@
         <v>10.00754154989525</v>
       </c>
       <c r="N56">
-        <v>0.001121769402708898</v>
+        <v>0.0011217694027089</v>
       </c>
       <c r="O56">
         <v>0.5008433696753393</v>
@@ -2663,19 +2663,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C57">
-        <v>0.4026729583353067</v>
+        <v>0.402672958335309</v>
       </c>
       <c r="D57">
-        <v>-1.074310103713037</v>
+        <v>-1.074310103713036</v>
       </c>
       <c r="E57">
-        <v>-0.4471293984069588</v>
+        <v>-0.4471293984069598</v>
       </c>
       <c r="F57">
-        <v>0.3472843770888229</v>
+        <v>0.3472843770888218</v>
       </c>
       <c r="G57">
-        <v>5.520930569266945</v>
+        <v>5.520930569266949</v>
       </c>
       <c r="I57">
         <v>0.5778503398487924</v>
@@ -2693,7 +2693,7 @@
         <v>10.08472848200819</v>
       </c>
       <c r="N57">
-        <v>0.001079301201951979</v>
+        <v>0.001079301201951981</v>
       </c>
       <c r="O57">
         <v>0.4996744768578281</v>
@@ -2707,19 +2707,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B58">
-        <v>-0.5565446472852073</v>
+        <v>-0.5565446472852078</v>
       </c>
       <c r="C58">
-        <v>0.7528806498504401</v>
+        <v>0.7528806498504403</v>
       </c>
       <c r="D58">
         <v>-1.250351969962433</v>
       </c>
       <c r="F58">
-        <v>0.046716043578116</v>
+        <v>0.04671604357811712</v>
       </c>
       <c r="G58">
-        <v>5.35858917823683</v>
+        <v>5.358589178236828</v>
       </c>
       <c r="I58">
         <v>0.5777487954225224</v>
@@ -2728,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="K58">
-        <v>-98.02438347718604</v>
+        <v>-98.02438347718603</v>
       </c>
       <c r="L58">
         <v>214.5287669543721</v>
@@ -2737,7 +2737,7 @@
         <v>10.09266539023042</v>
       </c>
       <c r="N58">
-        <v>0.001075026532185377</v>
+        <v>0.001075026532185379</v>
       </c>
       <c r="O58">
         <v>0.4995541279081748</v>
@@ -2751,19 +2751,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B59">
-        <v>-0.1724429124635899</v>
+        <v>-0.1724429124635913</v>
       </c>
       <c r="D59">
-        <v>-1.048275163426921</v>
+        <v>-1.048275163426923</v>
       </c>
       <c r="E59">
-        <v>-0.5252954847391916</v>
+        <v>-0.5252954847391909</v>
       </c>
       <c r="F59">
-        <v>0.3686549535529914</v>
+        <v>0.368654953552992</v>
       </c>
       <c r="G59">
-        <v>5.299642908363315</v>
+        <v>5.299642908363311</v>
       </c>
       <c r="I59">
         <v>0.57623861199285</v>
@@ -2781,7 +2781,7 @@
         <v>10.21047949027883</v>
       </c>
       <c r="N59">
-        <v>0.00101352899203176</v>
+        <v>0.001013528992031762</v>
       </c>
       <c r="O59">
         <v>0.4977642808804148</v>
@@ -2795,19 +2795,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B60">
-        <v>-0.2933515186522264</v>
+        <v>-0.2933515186522269</v>
       </c>
       <c r="D60">
-        <v>-1.150219243039571</v>
+        <v>-1.150219243039572</v>
       </c>
       <c r="E60">
-        <v>-0.5161084640992477</v>
+        <v>-0.5161084640992472</v>
       </c>
       <c r="G60">
-        <v>5.350025906786594</v>
+        <v>5.350025906786593</v>
       </c>
       <c r="H60">
-        <v>-0.09623771467314307</v>
+        <v>-0.09623771467314271</v>
       </c>
       <c r="I60">
         <v>0.5747671274236301</v>
@@ -2825,7 +2825,7 @@
         <v>10.32487140471869</v>
       </c>
       <c r="N60">
-        <v>0.0009571858891396352</v>
+        <v>0.000957185889139637</v>
       </c>
       <c r="O60">
         <v>0.4960202991687468</v>
@@ -2839,19 +2839,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C61">
-        <v>0.8409744746339684</v>
+        <v>0.8409744746339693</v>
       </c>
       <c r="E61">
-        <v>-0.1610497727679518</v>
+        <v>-0.1610497727679528</v>
       </c>
       <c r="F61">
-        <v>1.382170897161837</v>
+        <v>1.382170897161831</v>
       </c>
       <c r="G61">
-        <v>5.223153659269119</v>
+        <v>5.223153659269125</v>
       </c>
       <c r="H61">
-        <v>-1.278806565038648</v>
+        <v>-1.278806565038645</v>
       </c>
       <c r="I61">
         <v>0.5685417242507955</v>
@@ -2866,10 +2866,10 @@
         <v>215.2405902063462</v>
       </c>
       <c r="M61">
-        <v>10.80448864220458</v>
+        <v>10.80448864220457</v>
       </c>
       <c r="N61">
-        <v>0.0007530932027500112</v>
+        <v>0.0007530932027500125</v>
       </c>
       <c r="O61">
         <v>0.4886420435564984</v>
@@ -2880,25 +2880,25 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B62">
-        <v>4.291183450737599</v>
+        <v>4.291183450737602</v>
       </c>
       <c r="C62">
-        <v>2.833881369250105</v>
+        <v>2.833881369250109</v>
       </c>
       <c r="E62">
-        <v>-0.4708987606898448</v>
+        <v>-0.4708987606898422</v>
       </c>
       <c r="F62">
-        <v>7.568456450071573</v>
+        <v>7.568456450071582</v>
       </c>
       <c r="G62">
-        <v>3.817818013214806</v>
+        <v>3.817818013214799</v>
       </c>
       <c r="H62">
-        <v>-7.772719726353066</v>
+        <v>-7.772719726353079</v>
       </c>
       <c r="I62">
         <v>0.6107588332063054</v>
@@ -2910,13 +2910,13 @@
         <v>-96.68126217777657</v>
       </c>
       <c r="L62">
-        <v>215.3625243555532</v>
+        <v>215.3625243555531</v>
       </c>
       <c r="M62">
         <v>10.92642279141151</v>
       </c>
       <c r="N62">
-        <v>0.0007085509158003633</v>
+        <v>0.0007085509158003645</v>
       </c>
       <c r="O62">
         <v>0.5209339485616067</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C63">
         <v>5.250025948190594</v>
@@ -2939,7 +2939,7 @@
         <v>6.914828872372283</v>
       </c>
       <c r="H63">
-        <v>-8.939089928290821</v>
+        <v>-8.939089928290818</v>
       </c>
       <c r="I63">
         <v>0.5216400633531871</v>
@@ -2957,7 +2957,7 @@
         <v>10.96061514624242</v>
       </c>
       <c r="N63">
-        <v>0.0006965403634378586</v>
+        <v>0.0006965403634378598</v>
       </c>
       <c r="O63">
         <v>0.4533029295464995</v>
@@ -2968,19 +2968,19 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>15.59092151141025</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B64">
-        <v>7.455406007211222</v>
+        <v>7.455406007211216</v>
       </c>
       <c r="C64">
-        <v>4.631955669218213</v>
+        <v>4.631955669218206</v>
       </c>
       <c r="F64">
         <v>14.22124875485962</v>
       </c>
       <c r="H64">
-        <v>-14.47320779255605</v>
+        <v>-14.47320779255603</v>
       </c>
       <c r="I64">
         <v>0.5209927370352174</v>
@@ -2998,7 +2998,7 @@
         <v>11.00524122442241</v>
       </c>
       <c r="N64">
-        <v>0.0006811705424667456</v>
+        <v>0.0006811705424667468</v>
       </c>
       <c r="O64">
         <v>0.4525631280402485</v>
@@ -3012,19 +3012,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B65">
-        <v>0.2190972551446023</v>
+        <v>0.219097255144602</v>
       </c>
       <c r="C65">
-        <v>0.06120610368163233</v>
+        <v>0.06120610368163273</v>
       </c>
       <c r="E65">
-        <v>-0.2767957549151136</v>
+        <v>-0.2767957549151134</v>
       </c>
       <c r="F65">
-        <v>0.590941136422111</v>
+        <v>0.5909411364221115</v>
       </c>
       <c r="G65">
-        <v>5.646527847845772</v>
+        <v>5.646527847845771</v>
       </c>
       <c r="I65">
         <v>0.5628081387312494</v>
@@ -3042,7 +3042,7 @@
         <v>11.24013254976282</v>
       </c>
       <c r="N65">
-        <v>0.0006056892353570754</v>
+        <v>0.0006056892353570765</v>
       </c>
       <c r="O65">
         <v>0.48184668294074</v>
@@ -3056,19 +3056,19 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B66">
-        <v>-0.01773381426491376</v>
+        <v>-0.01773381426491352</v>
       </c>
       <c r="C66">
-        <v>0.2622840401571763</v>
+        <v>0.2622840401571769</v>
       </c>
       <c r="E66">
-        <v>-0.1707360553383829</v>
+        <v>-0.1707360553383831</v>
       </c>
       <c r="G66">
-        <v>5.849454508098681</v>
+        <v>5.849454508098682</v>
       </c>
       <c r="H66">
-        <v>-0.02224141325418758</v>
+        <v>-0.02224141325418716</v>
       </c>
       <c r="I66">
         <v>0.5588959189345872</v>
@@ -3086,7 +3086,7 @@
         <v>11.53412026147902</v>
       </c>
       <c r="N66">
-        <v>0.0005228910817767943</v>
+        <v>0.0005228910817767951</v>
       </c>
       <c r="O66">
         <v>0.4772099779965479</v>
@@ -3097,46 +3097,46 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="B67">
-        <v>1.561839569256052</v>
+        <v>1.56183956925605</v>
       </c>
       <c r="D67">
-        <v>-1.014779028413511</v>
+        <v>-1.014779028413513</v>
       </c>
       <c r="E67">
-        <v>-0.8392077151864638</v>
+        <v>-0.8392077151864626</v>
       </c>
       <c r="F67">
-        <v>3.034886886674602</v>
+        <v>3.034886886674604</v>
       </c>
       <c r="G67">
-        <v>4.380387825434441</v>
+        <v>4.380387825434436</v>
       </c>
       <c r="H67">
-        <v>-2.637745968766913</v>
+        <v>-2.637745968766914</v>
       </c>
       <c r="I67">
-        <v>0.5914495426823981</v>
+        <v>0.5914495426823988</v>
       </c>
       <c r="J67">
         <v>8</v>
       </c>
       <c r="K67">
-        <v>-97.4801312536402</v>
+        <v>-97.48013125364017</v>
       </c>
       <c r="L67">
-        <v>216.9602625072804</v>
+        <v>216.9602625072803</v>
       </c>
       <c r="M67">
-        <v>12.52416094313875</v>
+        <v>12.5241609431387</v>
       </c>
       <c r="N67">
-        <v>0.0003187327077821087</v>
+        <v>0.0003187327077821183</v>
       </c>
       <c r="O67">
-        <v>0.4971686679167977</v>
+        <v>0.4971686679167985</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -3147,22 +3147,22 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B68">
-        <v>-0.5922547257150295</v>
+        <v>-0.5922547257150281</v>
       </c>
       <c r="C68">
-        <v>1.471559455436375</v>
+        <v>1.471559455436377</v>
       </c>
       <c r="D68">
         <v>-1.794142449156528</v>
       </c>
       <c r="E68">
-        <v>-0.3385555980334331</v>
+        <v>-0.3385555980334333</v>
       </c>
       <c r="G68">
-        <v>5.396188073234659</v>
+        <v>5.396188073234663</v>
       </c>
       <c r="H68">
-        <v>-0.9874201433764873</v>
+        <v>-0.9874201433764883</v>
       </c>
       <c r="I68">
         <v>0.5870736707296381</v>
@@ -3180,7 +3180,7 @@
         <v>12.87573543106021</v>
       </c>
       <c r="N68">
-        <v>0.0002673518552951924</v>
+        <v>0.0002673518552951928</v>
       </c>
       <c r="O68">
         <v>0.4917829793595546</v>
@@ -3194,16 +3194,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B69">
-        <v>-0.5050453001250796</v>
+        <v>-0.50504530012508</v>
       </c>
       <c r="C69">
-        <v>0.642518004246614</v>
+        <v>0.6425180042466149</v>
       </c>
       <c r="D69">
-        <v>-1.304266603568052</v>
+        <v>-1.304266603568053</v>
       </c>
       <c r="E69">
-        <v>-0.4074867717800894</v>
+        <v>-0.4074867717800891</v>
       </c>
       <c r="F69">
         <v>0.1112918967464852</v>
@@ -3227,7 +3227,7 @@
         <v>13.43945041570225</v>
       </c>
       <c r="N69">
-        <v>0.0002016852086033654</v>
+        <v>0.0002016852086033657</v>
       </c>
       <c r="O69">
         <v>0.4830269039331323</v>
@@ -3238,25 +3238,25 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C70">
-        <v>5.225941750507859</v>
+        <v>5.225941750507858</v>
       </c>
       <c r="D70">
         <v>-4.445687568949722</v>
       </c>
       <c r="E70">
-        <v>-0.1974207783220917</v>
+        <v>-0.1974207783220938</v>
       </c>
       <c r="F70">
         <v>6.966237429392065</v>
       </c>
       <c r="H70">
-        <v>-8.978042225246886</v>
+        <v>-8.978042225246881</v>
       </c>
       <c r="I70">
-        <v>0.5221694074480618</v>
+        <v>0.522169407448061</v>
       </c>
       <c r="J70">
         <v>7</v>
@@ -3268,13 +3268,13 @@
         <v>218.6094100817178</v>
       </c>
       <c r="M70">
-        <v>14.17330851757612</v>
+        <v>14.17330851757617</v>
       </c>
       <c r="N70">
-        <v>0.0001397393718090057</v>
+        <v>0.0001397393718090019</v>
       </c>
       <c r="O70">
-        <v>0.4336822606791844</v>
+        <v>0.4336822606791834</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -3282,25 +3282,25 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>15.59092151141025</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B71">
         <v>7.606121504139259</v>
       </c>
       <c r="C71">
-        <v>4.592121332359084</v>
+        <v>4.592121332359095</v>
       </c>
       <c r="E71">
-        <v>-0.295157130485491</v>
+        <v>-0.2951571304854875</v>
       </c>
       <c r="F71">
-        <v>14.44868979839064</v>
+        <v>14.44868979839065</v>
       </c>
       <c r="H71">
-        <v>-14.651788793839</v>
+        <v>-14.65178879383902</v>
       </c>
       <c r="I71">
-        <v>0.5221612274676295</v>
+        <v>0.5221612274676304</v>
       </c>
       <c r="J71">
         <v>7</v>
@@ -3309,16 +3309,16 @@
         <v>-100.06498750189</v>
       </c>
       <c r="L71">
-        <v>218.60997500378</v>
+        <v>218.6099750037799</v>
       </c>
       <c r="M71">
-        <v>14.17387343963836</v>
+        <v>14.1738734396383</v>
       </c>
       <c r="N71">
-        <v>0.0001396999064559311</v>
+        <v>0.0001396999064559353</v>
       </c>
       <c r="O71">
-        <v>0.4336725658875609</v>
+        <v>0.433672565887562</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>15.59092151141024</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B72">
-        <v>4.402457506845646</v>
+        <v>4.402457506845643</v>
       </c>
       <c r="F72">
-        <v>8.918865657157129</v>
+        <v>8.918865657157127</v>
       </c>
       <c r="H72">
-        <v>-7.610715897495475</v>
+        <v>-7.610715897495472</v>
       </c>
       <c r="I72">
         <v>0.421352964293524</v>
@@ -3344,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="K72">
-        <v>-103.2234059827346</v>
+        <v>-103.2234059827345</v>
       </c>
       <c r="L72">
         <v>218.6690341876913</v>
@@ -3353,7 +3353,7 @@
         <v>14.23293262354969</v>
       </c>
       <c r="N72">
-        <v>0.0001356349390191606</v>
+        <v>0.0001356349390191608</v>
       </c>
       <c r="O72">
         <v>0.361492926116992</v>
@@ -3364,16 +3364,16 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="D73">
-        <v>-2.262680134878688</v>
+        <v>-2.262680134878691</v>
       </c>
       <c r="F73">
         <v>4.473150458729292</v>
       </c>
       <c r="H73">
-        <v>-3.988756588721811</v>
+        <v>-3.98875658872181</v>
       </c>
       <c r="I73">
         <v>0.4070569842180779</v>
@@ -3391,7 +3391,7 @@
         <v>15.03831801989705</v>
       </c>
       <c r="N73">
-        <v>9.067433094406761e-005</v>
+        <v>9.067433094406777e-05</v>
       </c>
       <c r="O73">
         <v>0.3457180515509826</v>
@@ -3402,40 +3402,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>15.59092151141023</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B74">
         <v>3.286733111129205</v>
       </c>
       <c r="D74">
-        <v>-1.511401245146596</v>
+        <v>-1.511401245146597</v>
       </c>
       <c r="F74">
-        <v>7.594763017783599</v>
+        <v>7.594763017783602</v>
       </c>
       <c r="H74">
         <v>-6.743514562991884</v>
       </c>
       <c r="I74">
-        <v>0.452143613837972</v>
+        <v>0.4521436138379729</v>
       </c>
       <c r="J74">
         <v>6</v>
       </c>
       <c r="K74">
-        <v>-102.3211942665293</v>
+        <v>-102.3211942665292</v>
       </c>
       <c r="L74">
-        <v>219.8731577638278</v>
+        <v>219.8731577638277</v>
       </c>
       <c r="M74">
-        <v>15.43705619968614</v>
+        <v>15.43705619968608</v>
       </c>
       <c r="N74">
-        <v>7.428471545502379e-005</v>
+        <v>7.428471545502604e-05</v>
       </c>
       <c r="O74">
-        <v>0.3738784158148251</v>
+        <v>0.3738784158148262</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -3443,13 +3443,13 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="F75">
-        <v>4.949381084329907</v>
+        <v>4.949381084329906</v>
       </c>
       <c r="H75">
-        <v>-3.866404018670075</v>
+        <v>-3.866404018670073</v>
       </c>
       <c r="I75">
         <v>0.3240398183373634</v>
@@ -3461,13 +3461,13 @@
         <v>-105.7881905666759</v>
       </c>
       <c r="L75">
-        <v>221.0049525619232</v>
+        <v>221.0049525619231</v>
       </c>
       <c r="M75">
         <v>16.56885099778151</v>
       </c>
       <c r="N75">
-        <v>4.218260016221068e-005</v>
+        <v>4.218260016221075e-05</v>
       </c>
       <c r="O75">
         <v>0.278975806226521</v>
@@ -3478,22 +3478,22 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>15.59092151141024</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B76">
-        <v>4.707283827252013</v>
+        <v>4.707283827252012</v>
       </c>
       <c r="E76">
-        <v>-0.5083991033332804</v>
+        <v>-0.5083991033332825</v>
       </c>
       <c r="F76">
-        <v>9.389170380931033</v>
+        <v>9.389170380931034</v>
       </c>
       <c r="H76">
         <v>-8.019970677808869</v>
       </c>
       <c r="I76">
-        <v>0.4248416228525136</v>
+        <v>0.4248416228525146</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -3502,16 +3502,16 @@
         <v>-103.1236265207897</v>
       </c>
       <c r="L76">
-        <v>221.4780222723487</v>
+        <v>221.4780222723486</v>
       </c>
       <c r="M76">
-        <v>17.04192070820702</v>
+        <v>17.04192070820696</v>
       </c>
       <c r="N76">
-        <v>3.329718844602412e-005</v>
+        <v>3.329718844602512e-05</v>
       </c>
       <c r="O76">
-        <v>0.3426761404028726</v>
+        <v>0.3426761404028739</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -3519,19 +3519,19 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="D77">
-        <v>-2.387956884021049</v>
+        <v>-2.387956884021052</v>
       </c>
       <c r="E77">
-        <v>-0.3916771368219282</v>
+        <v>-0.3916771368219303</v>
       </c>
       <c r="F77">
-        <v>4.597366138974111</v>
+        <v>4.597366138974113</v>
       </c>
       <c r="H77">
-        <v>-4.111091569030394</v>
+        <v>-4.111091569030395</v>
       </c>
       <c r="I77">
         <v>0.409150049030371</v>
@@ -3549,7 +3549,7 @@
         <v>17.93017028076093</v>
       </c>
       <c r="N77">
-        <v>2.135632985572005e-005</v>
+        <v>2.135632985572008e-05</v>
       </c>
       <c r="O77">
         <v>0.3247429131775669</v>
@@ -3560,22 +3560,22 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>15.59092151141023</v>
+        <v>15.5909215114102</v>
       </c>
       <c r="B78">
         <v>3.672799645236727</v>
       </c>
       <c r="D78">
-        <v>-1.70556175994395</v>
+        <v>-1.705561759943951</v>
       </c>
       <c r="E78">
-        <v>-0.8829450331476147</v>
+        <v>-0.8829450331476141</v>
       </c>
       <c r="F78">
-        <v>8.241449515847267</v>
+        <v>8.241449515847266</v>
       </c>
       <c r="H78">
-        <v>-7.342869954804365</v>
+        <v>-7.342869954804367</v>
       </c>
       <c r="I78">
         <v>0.4621579114413787</v>
@@ -3593,7 +3593,7 @@
         <v>18.07749695739932</v>
       </c>
       <c r="N78">
-        <v>1.983969716293811e-005</v>
+        <v>1.983969716293814e-05</v>
       </c>
       <c r="O78">
         <v>0.3625575246712637</v>
@@ -3604,19 +3604,19 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C79">
-        <v>1.017145333914355</v>
+        <v>1.017145333914357</v>
       </c>
       <c r="F79">
-        <v>5.509274444612682</v>
+        <v>5.50927444461268</v>
       </c>
       <c r="H79">
-        <v>-4.803175750785459</v>
+        <v>-4.803175750785462</v>
       </c>
       <c r="I79">
-        <v>0.3311011735300682</v>
+        <v>0.3311011735300671</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -3625,16 +3625,16 @@
         <v>-105.6149182300124</v>
       </c>
       <c r="L79">
-        <v>223.452058682247</v>
+        <v>223.4520586822471</v>
       </c>
       <c r="M79">
-        <v>19.01595711810541</v>
+        <v>19.01595711810546</v>
       </c>
       <c r="N79">
-        <v>1.240940629753672e-005</v>
+        <v>1.240940629753639e-05</v>
       </c>
       <c r="O79">
-        <v>0.2619047432055924</v>
+        <v>0.2619047432055912</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -3642,19 +3642,19 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="E80">
-        <v>0.4176645308124136</v>
+        <v>0.4176645308124139</v>
       </c>
       <c r="F80">
         <v>4.788807137584667</v>
       </c>
       <c r="H80">
-        <v>-3.743175933696813</v>
+        <v>-3.743175933696815</v>
       </c>
       <c r="I80">
-        <v>0.3267092179962196</v>
+        <v>0.3267092179962195</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -3669,7 +3669,7 @@
         <v>19.23192518848958</v>
       </c>
       <c r="N80">
-        <v>1.113920338180931e-005</v>
+        <v>1.113920338180933e-05</v>
       </c>
       <c r="O80">
         <v>0.2570584474441043</v>
@@ -3686,7 +3686,7 @@
         <v>-2.748793943138161</v>
       </c>
       <c r="D81">
-        <v>-3.054881991657325</v>
+        <v>-3.054881991657326</v>
       </c>
       <c r="I81">
         <v>0.2502055028830483</v>
@@ -3704,7 +3704,7 @@
         <v>19.98979578982144</v>
       </c>
       <c r="N81">
-        <v>7.625786170941516e-006</v>
+        <v>7.62578617094153e-06</v>
       </c>
       <c r="O81">
         <v>0.2002192030752515</v>
@@ -3715,16 +3715,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C82">
-        <v>-2.127609283387193</v>
+        <v>-2.127609283387194</v>
       </c>
       <c r="F82">
-        <v>2.749308248905709</v>
+        <v>2.749308248905707</v>
       </c>
       <c r="I82">
-        <v>0.219160862129767</v>
+        <v>0.2191608621297657</v>
       </c>
       <c r="J82">
         <v>4</v>
@@ -3733,16 +3733,16 @@
         <v>-108.1680678644939</v>
       </c>
       <c r="L82">
-        <v>225.7647071575592</v>
+        <v>225.7647071575593</v>
       </c>
       <c r="M82">
-        <v>21.32860559341756</v>
+        <v>21.32860559341762</v>
       </c>
       <c r="N82">
-        <v>3.904503067554852e-006</v>
+        <v>3.904503067554748e-06</v>
       </c>
       <c r="O82">
-        <v>0.1671049196050849</v>
+        <v>0.1671049196050834</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="D83">
-        <v>-2.100470621994967</v>
+        <v>-2.100470621994969</v>
       </c>
       <c r="F83">
         <v>2.359802507675349</v>
@@ -3771,10 +3771,10 @@
         <v>226.022487478444</v>
       </c>
       <c r="M83">
-        <v>21.58638591430236</v>
+        <v>21.58638591430235</v>
       </c>
       <c r="N83">
-        <v>3.432333530065748e-006</v>
+        <v>3.432333530065754e-06</v>
       </c>
       <c r="O83">
         <v>0.1605732610729241</v>
@@ -3785,22 +3785,22 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C84">
-        <v>1.259102431832493</v>
+        <v>1.259102431832495</v>
       </c>
       <c r="E84">
-        <v>0.6324987225205172</v>
+        <v>0.6324987225205185</v>
       </c>
       <c r="F84">
-        <v>5.39929268656291</v>
+        <v>5.399292686562904</v>
       </c>
       <c r="H84">
-        <v>-4.839400748921804</v>
+        <v>-4.839400748921806</v>
       </c>
       <c r="I84">
-        <v>0.3368233780646091</v>
+        <v>0.336823378064609</v>
       </c>
       <c r="J84">
         <v>6</v>
@@ -3815,7 +3815,7 @@
         <v>21.74098578481269</v>
       </c>
       <c r="N84">
-        <v>3.177009749533314e-006</v>
+        <v>3.177009749533319e-06</v>
       </c>
       <c r="O84">
         <v>0.2420838606452674</v>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="F85">
-        <v>2.863177831431517</v>
+        <v>2.863177831431515</v>
       </c>
       <c r="I85">
         <v>0.1413387999726774</v>
@@ -3847,7 +3847,7 @@
         <v>21.86279437808005</v>
       </c>
       <c r="N85">
-        <v>2.989290676847364e-006</v>
+        <v>2.989290676847369e-06</v>
       </c>
       <c r="O85">
         <v>0.1136400515846993</v>
@@ -3864,10 +3864,10 @@
         <v>-2.123262053170181</v>
       </c>
       <c r="D86">
-        <v>-2.658174675128331</v>
+        <v>-2.658174675128332</v>
       </c>
       <c r="F86">
-        <v>1.286089214862849</v>
+        <v>1.28608921486285</v>
       </c>
       <c r="I86">
         <v>0.2704736794811645</v>
@@ -3885,7 +3885,7 @@
         <v>21.87912390231972</v>
       </c>
       <c r="N86">
-        <v>2.964983196993906e-006</v>
+        <v>2.964983196993911e-06</v>
       </c>
       <c r="O86">
         <v>0.1950054394274919</v>
@@ -3899,13 +3899,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B87">
-        <v>-2.461074779412483</v>
+        <v>-2.461074779412482</v>
       </c>
       <c r="D87">
-        <v>-3.153083684595891</v>
+        <v>-3.153083684595892</v>
       </c>
       <c r="H87">
-        <v>-0.8286079907917712</v>
+        <v>-0.8286079907917716</v>
       </c>
       <c r="I87">
         <v>0.2603117248320899</v>
@@ -3923,7 +3923,7 @@
         <v>22.33562610709856</v>
       </c>
       <c r="N87">
-        <v>2.359902401594494e-006</v>
+        <v>2.359902401594498e-06</v>
       </c>
       <c r="O87">
         <v>0.1837922480905819</v>
@@ -3940,10 +3940,10 @@
         <v>-2.660174939767793</v>
       </c>
       <c r="D88">
-        <v>-2.845570952208545</v>
+        <v>-2.845570952208546</v>
       </c>
       <c r="E88">
-        <v>0.5728672788810124</v>
+        <v>0.5728672788810129</v>
       </c>
       <c r="I88">
         <v>0.2550633687666548</v>
@@ -3961,7 +3961,7 @@
         <v>22.56894628232388</v>
       </c>
       <c r="N88">
-        <v>2.100047944773199e-006</v>
+        <v>2.100047944773203e-06</v>
       </c>
       <c r="O88">
         <v>0.1780009586390674</v>
@@ -3975,7 +3975,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D89">
-        <v>-2.665994528334343</v>
+        <v>-2.665994528334346</v>
       </c>
       <c r="I89">
         <v>0.1225415195781672</v>
@@ -3993,10 +3993,10 @@
         <v>22.57741618776004</v>
       </c>
       <c r="N89">
-        <v>2.091173146460995e-006</v>
+        <v>2.091173146460999e-06</v>
       </c>
       <c r="O89">
-        <v>0.09423640730649519</v>
+        <v>0.09423640730649518</v>
       </c>
       <c r="P89" t="b">
         <v>0</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C90">
         <v>-1.602717702148153</v>
@@ -4013,7 +4013,7 @@
         <v>-1.511797178474197</v>
       </c>
       <c r="F90">
-        <v>2.415100007295501</v>
+        <v>2.415100007295502</v>
       </c>
       <c r="I90">
         <v>0.2515663056527833</v>
@@ -4031,7 +4031,7 @@
         <v>22.7235004364089</v>
       </c>
       <c r="N90">
-        <v>1.943874406556949e-006</v>
+        <v>1.943874406556952e-06</v>
       </c>
       <c r="O90">
         <v>0.174142130375485</v>
@@ -4048,7 +4048,7 @@
         <v>-2.673291203626828</v>
       </c>
       <c r="C91">
-        <v>-0.169008453602742</v>
+        <v>-0.1690084536027417</v>
       </c>
       <c r="D91">
         <v>-2.983521325746203</v>
@@ -4069,7 +4069,7 @@
         <v>22.76880170013303</v>
       </c>
       <c r="N91">
-        <v>1.900339332746883e-006</v>
+        <v>1.900339332746886e-06</v>
       </c>
       <c r="O91">
         <v>0.1730076426137924</v>
@@ -4083,7 +4083,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D92">
-        <v>-2.949351731184855</v>
+        <v>-2.949351731184857</v>
       </c>
       <c r="H92">
         <v>-1.690282850184947</v>
@@ -4104,7 +4104,7 @@
         <v>23.3269285381628</v>
       </c>
       <c r="N92">
-        <v>1.437591361353087e-006</v>
+        <v>1.437591361353089e-06</v>
       </c>
       <c r="O92">
         <v>0.1151103737963336</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="E93">
-        <v>1.24237225078282</v>
+        <v>1.242372250782821</v>
       </c>
       <c r="F93">
         <v>2.583319828719573</v>
@@ -4139,7 +4139,7 @@
         <v>23.47837999972552</v>
       </c>
       <c r="N93">
-        <v>1.332748453866407e-006</v>
+        <v>1.332748453866409e-06</v>
       </c>
       <c r="O93">
         <v>0.111039894054254</v>
@@ -4153,10 +4153,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B94">
-        <v>-1.304698742572494</v>
+        <v>-1.304698742572493</v>
       </c>
       <c r="F94">
-        <v>2.285531129874575</v>
+        <v>2.285531129874576</v>
       </c>
       <c r="I94">
         <v>0.1649343214076078</v>
@@ -4174,7 +4174,7 @@
         <v>23.5442658390852</v>
       </c>
       <c r="N94">
-        <v>1.289559125695415e-006</v>
+        <v>1.289559125695418e-06</v>
       </c>
       <c r="O94">
         <v>0.1092632761681149</v>
@@ -4188,7 +4188,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B95">
-        <v>-2.316602468236119</v>
+        <v>-2.316602468236118</v>
       </c>
       <c r="I95">
         <v>0.09252685133545002</v>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="K95">
-        <v>-110.6479323658514</v>
+        <v>-110.6479323658513</v>
       </c>
       <c r="L95">
         <v>228.1234509385992</v>
@@ -4206,7 +4206,7 @@
         <v>23.6873493744576</v>
       </c>
       <c r="N95">
-        <v>1.200524601578887e-006</v>
+        <v>1.200524601578889e-06</v>
       </c>
       <c r="O95">
         <v>0.06325352395917416</v>
@@ -4220,7 +4220,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C96">
-        <v>-2.274752175168175</v>
+        <v>-2.274752175168176</v>
       </c>
       <c r="I96">
         <v>0.08921398359969845</v>
@@ -4238,10 +4238,10 @@
         <v>23.80760149071796</v>
       </c>
       <c r="N96">
-        <v>1.130468977674482e-006</v>
+        <v>1.130468977674485e-06</v>
       </c>
       <c r="O96">
-        <v>0.05983378952226937</v>
+        <v>0.05983378952226936</v>
       </c>
       <c r="P96" t="b">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>23.86018495231542</v>
       </c>
       <c r="N97">
-        <v>1.101134311008718e-006</v>
+        <v>1.10113431100872e-06</v>
       </c>
       <c r="O97">
         <v>0.1006950327629343</v>
@@ -4284,19 +4284,19 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C98">
-        <v>-1.941774930510778</v>
+        <v>-1.941774930510779</v>
       </c>
       <c r="E98">
-        <v>0.5385820248870467</v>
+        <v>0.5385820248870468</v>
       </c>
       <c r="F98">
-        <v>2.637932577750811</v>
+        <v>2.637932577750808</v>
       </c>
       <c r="I98">
-        <v>0.2233145203442429</v>
+        <v>0.2233145203442416</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -4305,16 +4305,16 @@
         <v>-108.0800621633412</v>
       </c>
       <c r="L98">
-        <v>228.3823465489045</v>
+        <v>228.3823465489046</v>
       </c>
       <c r="M98">
-        <v>23.9462449847629</v>
+        <v>23.94624498476296</v>
       </c>
       <c r="N98">
-        <v>1.054757438198449e-006</v>
+        <v>1.054757438198421e-06</v>
       </c>
       <c r="O98">
-        <v>0.1429677465867508</v>
+        <v>0.1429677465867494</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
@@ -4322,16 +4322,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B99">
-        <v>-0.41091234570486</v>
+        <v>-0.4109123457048597</v>
       </c>
       <c r="C99">
         <v>-1.977892548950102</v>
       </c>
       <c r="F99">
-        <v>2.575392372370804</v>
+        <v>2.575392372370805</v>
       </c>
       <c r="I99">
         <v>0.2211160019755878</v>
@@ -4349,7 +4349,7 @@
         <v>24.03952420566947</v>
       </c>
       <c r="N99">
-        <v>1.006693515752531e-006</v>
+        <v>1.006693515752532e-06</v>
       </c>
       <c r="O99">
         <v>0.1405417952834072</v>
@@ -4363,13 +4363,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D100">
-        <v>-1.896537030107407</v>
+        <v>-1.89653703010741</v>
       </c>
       <c r="E100">
-        <v>0.6639645577248129</v>
+        <v>0.6639645577248116</v>
       </c>
       <c r="F100">
-        <v>2.259109640694324</v>
+        <v>2.259109640694325</v>
       </c>
       <c r="I100">
         <v>0.219576611970365</v>
@@ -4387,7 +4387,7 @@
         <v>24.10468119412494</v>
       </c>
       <c r="N100">
-        <v>9.744254335741977e-007</v>
+        <v>9.744254335741994e-07</v>
       </c>
       <c r="O100">
         <v>0.1388431580362649</v>
@@ -4416,7 +4416,7 @@
         <v>24.46377611802802</v>
       </c>
       <c r="N101">
-        <v>8.142769458404234e-007</v>
+        <v>8.142769458404249e-07</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D102">
-        <v>-2.312170533390313</v>
+        <v>-2.312170533390316</v>
       </c>
       <c r="E102">
         <v>1.030088296232109</v>
@@ -4451,7 +4451,7 @@
         <v>24.56590823550553</v>
       </c>
       <c r="N102">
-        <v>7.737388996343658e-007</v>
+        <v>7.737388996343672e-07</v>
       </c>
       <c r="O102">
         <v>0.08125577904561254</v>
@@ -4486,13 +4486,13 @@
         <v>-106.9240824794046</v>
       </c>
       <c r="L103">
-        <v>229.0789341895784</v>
+        <v>229.0789341895783</v>
       </c>
       <c r="M103">
         <v>24.64283262543671</v>
       </c>
       <c r="N103">
-        <v>7.445442474075275e-007</v>
+        <v>7.445442474075287e-07</v>
       </c>
       <c r="O103">
         <v>0.1724185775079219</v>
@@ -4527,7 +4527,7 @@
         <v>24.65524853819045</v>
       </c>
       <c r="N104">
-        <v>7.399364664487224e-007</v>
+        <v>7.399364664487238e-07</v>
       </c>
       <c r="O104">
         <v>0.07876510949487092</v>
@@ -4544,10 +4544,10 @@
         <v>-2.072504591152388</v>
       </c>
       <c r="D105">
-        <v>-2.499591551704183</v>
+        <v>-2.499591551704184</v>
       </c>
       <c r="E105">
-        <v>0.4729063970152516</v>
+        <v>0.4729063970152518</v>
       </c>
       <c r="F105">
         <v>1.240038640747001</v>
@@ -4568,7 +4568,7 @@
         <v>24.73876299951405</v>
       </c>
       <c r="N105">
-        <v>7.096749836360318e-007</v>
+        <v>7.096749836360331e-07</v>
       </c>
       <c r="O105">
         <v>0.1700093138645408</v>
@@ -4585,7 +4585,7 @@
         <v>-1.689269789113128</v>
       </c>
       <c r="C106">
-        <v>-1.620998070171953</v>
+        <v>-1.620998070171954</v>
       </c>
       <c r="I106">
         <v>0.1310449745398132</v>
@@ -4600,10 +4600,10 @@
         <v>229.2931400999745</v>
       </c>
       <c r="M106">
-        <v>24.85703853583289</v>
+        <v>24.85703853583288</v>
       </c>
       <c r="N106">
-        <v>6.689232483020363e-007</v>
+        <v>6.689232483020375e-07</v>
       </c>
       <c r="O106">
         <v>0.07311463950913411</v>
@@ -4635,7 +4635,7 @@
         <v>24.94135438655516</v>
       </c>
       <c r="N107">
-        <v>6.413090013658863e-007</v>
+        <v>6.413090013658875e-07</v>
       </c>
       <c r="O107">
         <v>0.02697203026235073</v>
@@ -4646,19 +4646,19 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>15.59092151141022</v>
+        <v>15.59092151141023</v>
       </c>
       <c r="B108">
-        <v>-2.679953359432129</v>
+        <v>-2.679953359432128</v>
       </c>
       <c r="C108">
-        <v>0.9503730811912445</v>
+        <v>0.9503730811912442</v>
       </c>
       <c r="D108">
         <v>-3.624565413911661</v>
       </c>
       <c r="H108">
-        <v>-1.420980172823937</v>
+        <v>-1.420980172823936</v>
       </c>
       <c r="I108">
         <v>0.2656659694424537</v>
@@ -4676,7 +4676,7 @@
         <v>25.10443339316518</v>
       </c>
       <c r="N108">
-        <v>5.91092133128636e-007</v>
+        <v>5.910921331286371e-07</v>
       </c>
       <c r="O108">
         <v>0.1607611079342328</v>
@@ -4693,10 +4693,10 @@
         <v>-2.40380289423503</v>
       </c>
       <c r="D109">
-        <v>-2.968031168414142</v>
+        <v>-2.968031168414143</v>
       </c>
       <c r="E109">
-        <v>0.4892711821304487</v>
+        <v>0.4892711821304492</v>
       </c>
       <c r="H109">
         <v>-0.775573347798357</v>
@@ -4717,7 +4717,7 @@
         <v>25.18755999237538</v>
       </c>
       <c r="N109">
-        <v>5.670279512611145e-007</v>
+        <v>5.670279512611155e-07</v>
       </c>
       <c r="O109">
         <v>0.1586444105095014</v>
@@ -4731,13 +4731,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B110">
-        <v>-1.299664831192433</v>
+        <v>-1.299664831192432</v>
       </c>
       <c r="E110">
-        <v>1.237896013760156</v>
+        <v>1.237896013760155</v>
       </c>
       <c r="F110">
-        <v>2.008910179568999</v>
+        <v>2.008910179569001</v>
       </c>
       <c r="I110">
         <v>0.1900133685192711</v>
@@ -4755,7 +4755,7 @@
         <v>25.33165965896146</v>
       </c>
       <c r="N110">
-        <v>5.276107342015373e-007</v>
+        <v>5.276107342015383e-07</v>
       </c>
       <c r="O110">
         <v>0.1062216480212647</v>
@@ -4772,13 +4772,13 @@
         <v>-2.647474151326602</v>
       </c>
       <c r="C111">
-        <v>-0.03045763100203063</v>
+        <v>-0.03045763100203042</v>
       </c>
       <c r="D111">
-        <v>-2.83485029878561</v>
+        <v>-2.834850298785611</v>
       </c>
       <c r="E111">
-        <v>0.567011606096937</v>
+        <v>0.5670116060969363</v>
       </c>
       <c r="I111">
         <v>0.2550736654180787</v>
@@ -4796,7 +4796,7 @@
         <v>25.57703715563591</v>
       </c>
       <c r="N111">
-        <v>4.666922363623609e-007</v>
+        <v>4.666922363623617e-07</v>
       </c>
       <c r="O111">
         <v>0.1486556176206614</v>
@@ -4810,10 +4810,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C112">
-        <v>-1.861118917104945</v>
+        <v>-1.861118917104946</v>
       </c>
       <c r="E112">
-        <v>1.161527850275607</v>
+        <v>1.161527850275606</v>
       </c>
       <c r="I112">
         <v>0.1095249284668545</v>
@@ -4831,7 +4831,7 @@
         <v>25.66434192238543</v>
       </c>
       <c r="N112">
-        <v>4.467582561167885e-007</v>
+        <v>4.467582561167893e-07</v>
       </c>
       <c r="O112">
         <v>0.05015992369797806</v>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="C113">
-        <v>-1.537363548676061</v>
+        <v>-1.537363548676062</v>
       </c>
       <c r="D113">
         <v>-1.462340504972505</v>
       </c>
       <c r="E113">
-        <v>0.2391736423314042</v>
+        <v>0.2391736423314023</v>
       </c>
       <c r="F113">
-        <v>2.376573502048633</v>
+        <v>2.376573502048635</v>
       </c>
       <c r="I113">
         <v>0.2523507571278081</v>
@@ -4872,7 +4872,7 @@
         <v>25.6974412070206</v>
       </c>
       <c r="N113">
-        <v>4.394254121140292e-007</v>
+        <v>4.394254121140299e-07</v>
       </c>
       <c r="O113">
         <v>0.1455437224317807</v>
@@ -4886,10 +4886,10 @@
         <v>15.59092151141022</v>
       </c>
       <c r="D114">
-        <v>-2.665281485700784</v>
+        <v>-2.665281485700787</v>
       </c>
       <c r="E114">
-        <v>0.7708183985866394</v>
+        <v>0.7708183985866387</v>
       </c>
       <c r="H114">
         <v>-1.575138904658949</v>
@@ -4910,7 +4910,7 @@
         <v>25.76812417648159</v>
       </c>
       <c r="N114">
-        <v>4.241666867975536e-007</v>
+        <v>4.241666867975544e-07</v>
       </c>
       <c r="O114">
         <v>0.09432183786782733</v>
@@ -4942,7 +4942,7 @@
         <v>26.06751489998055</v>
       </c>
       <c r="N115">
-        <v>3.651948860474911e-007</v>
+        <v>3.651948860474917e-07</v>
       </c>
       <c r="O115">
         <v>-0.006806685730359696</v>
@@ -4956,13 +4956,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C116">
-        <v>-0.4137788425967215</v>
+        <v>-0.4137788425967208</v>
       </c>
       <c r="D116">
-        <v>-2.751964146426425</v>
+        <v>-2.751964146426426</v>
       </c>
       <c r="H116">
-        <v>-1.399007100782874</v>
+        <v>-1.399007100782873</v>
       </c>
       <c r="I116">
         <v>0.1715657156707092</v>
@@ -4980,7 +4980,7 @@
         <v>26.0748121244344</v>
       </c>
       <c r="N116">
-        <v>3.638648593723259e-007</v>
+        <v>3.638648593723265e-07</v>
       </c>
       <c r="O116">
         <v>0.08586561729181708</v>
@@ -4997,10 +4997,10 @@
         <v>-2.16864726028528</v>
       </c>
       <c r="H117">
-        <v>-0.4064716919907495</v>
+        <v>-0.4064716919907497</v>
       </c>
       <c r="I117">
-        <v>0.09499799097972173</v>
+        <v>0.09499799097972172</v>
       </c>
       <c r="J117">
         <v>4</v>
@@ -5015,7 +5015,7 @@
         <v>26.19834973929818</v>
       </c>
       <c r="N117">
-        <v>3.42069429197402e-007</v>
+        <v>3.420694291974027e-07</v>
       </c>
       <c r="O117">
         <v>0.03466452371170314</v>
@@ -5029,13 +5029,13 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C118">
-        <v>-2.503146389194226</v>
+        <v>-2.503146389194228</v>
       </c>
       <c r="H118">
-        <v>0.3660335097282699</v>
+        <v>0.3660335097282706</v>
       </c>
       <c r="I118">
-        <v>0.0906245913061895</v>
+        <v>0.09062459130618949</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -5050,7 +5050,7 @@
         <v>26.35743733301152</v>
       </c>
       <c r="N118">
-        <v>3.159139697680824e-007</v>
+        <v>3.15913969768083e-07</v>
       </c>
       <c r="O118">
         <v>0.02999956405993542</v>
@@ -5067,10 +5067,10 @@
         <v>-1.331166528810472</v>
       </c>
       <c r="D119">
-        <v>-1.954922655130348</v>
+        <v>-1.954922655130349</v>
       </c>
       <c r="E119">
-        <v>0.6787554934100972</v>
+        <v>0.6787554934100959</v>
       </c>
       <c r="I119">
         <v>0.1634134132868745</v>
@@ -5088,7 +5088,7 @@
         <v>26.3979649847463</v>
       </c>
       <c r="N119">
-        <v>3.095767689113115e-007</v>
+        <v>3.09576768911312e-07</v>
       </c>
       <c r="O119">
         <v>0.07686997328206846</v>
@@ -5126,7 +5126,7 @@
         <v>26.77435525319325</v>
       </c>
       <c r="N120">
-        <v>2.564698128165513e-007</v>
+        <v>2.564698128165518e-07</v>
       </c>
       <c r="O120">
         <v>0.06628069385456736</v>
@@ -5137,19 +5137,19 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>15.59092151141023</v>
+        <v>15.59092151141021</v>
       </c>
       <c r="B121">
         <v>-0.5227883695964664</v>
       </c>
       <c r="C121">
-        <v>-1.724779800296995</v>
+        <v>-1.724779800296996</v>
       </c>
       <c r="E121">
-        <v>0.6154306683002915</v>
+        <v>0.6154306683002909</v>
       </c>
       <c r="F121">
-        <v>2.400774070973381</v>
+        <v>2.400774070973382</v>
       </c>
       <c r="I121">
         <v>0.2263946444115955</v>
@@ -5167,7 +5167,7 @@
         <v>26.82366275529191</v>
       </c>
       <c r="N121">
-        <v>2.502241754364622e-007</v>
+        <v>2.502241754364627e-07</v>
       </c>
       <c r="O121">
         <v>0.1158795936132521</v>
@@ -5202,7 +5202,7 @@
         <v>26.88289038622136</v>
       </c>
       <c r="N122">
-        <v>2.429227283268856e-007</v>
+        <v>2.42922728326886e-07</v>
       </c>
       <c r="O122">
         <v>0.01443080155389942</v>
@@ -5219,10 +5219,10 @@
         <v>-2.038569563720106</v>
       </c>
       <c r="E123">
-        <v>1.586738158447844</v>
+        <v>1.586738158447843</v>
       </c>
       <c r="H123">
-        <v>-0.3148235664035585</v>
+        <v>-0.3148235664035587</v>
       </c>
       <c r="I123">
         <v>0.1378203735177903</v>
@@ -5240,7 +5240,7 @@
         <v>27.39237400122224</v>
       </c>
       <c r="N123">
-        <v>1.882934395884426e-007</v>
+        <v>1.882934395884429e-07</v>
       </c>
       <c r="O123">
         <v>0.04862937767480313</v>
@@ -5257,10 +5257,10 @@
         <v>-1.793880429790469</v>
       </c>
       <c r="C124">
-        <v>-2.033483700918217</v>
+        <v>-2.033483700918218</v>
       </c>
       <c r="H124">
-        <v>0.7259480395342111</v>
+        <v>0.7259480395342116</v>
       </c>
       <c r="I124">
         <v>0.136433057552161</v>
@@ -5278,7 +5278,7 @@
         <v>27.44543096514963</v>
       </c>
       <c r="N124">
-        <v>1.833639751698105e-007</v>
+        <v>1.833639751698108e-07</v>
       </c>
       <c r="O124">
         <v>0.04709854626445342</v>
@@ -5292,16 +5292,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B125">
-        <v>-1.705913110124004</v>
+        <v>-1.705913110124003</v>
       </c>
       <c r="C125">
-        <v>-0.6203890644700272</v>
+        <v>-0.6203890644700273</v>
       </c>
       <c r="D125">
         <v>-2.217705214256863</v>
       </c>
       <c r="E125">
-        <v>0.3352808909444945</v>
+        <v>0.3352808909444935</v>
       </c>
       <c r="F125">
         <v>1.467696768647323</v>
@@ -5322,7 +5322,7 @@
         <v>27.82209175583296</v>
       </c>
       <c r="N125">
-        <v>1.518878952582677e-007</v>
+        <v>1.51887895258268e-07</v>
       </c>
       <c r="O125">
         <v>0.1435852415874003</v>
@@ -5339,37 +5339,37 @@
         <v>-2.651314450433584</v>
       </c>
       <c r="C126">
-        <v>1.148574609055688</v>
+        <v>1.148574609055686</v>
       </c>
       <c r="D126">
-        <v>-3.482865289292908</v>
+        <v>-3.482865289292906</v>
       </c>
       <c r="E126">
-        <v>0.6346247313607029</v>
+        <v>0.6346247313607023</v>
       </c>
       <c r="H126">
-        <v>-1.475729884277294</v>
+        <v>-1.475729884277291</v>
       </c>
       <c r="I126">
-        <v>0.2713251586816392</v>
+        <v>0.271325158681638</v>
       </c>
       <c r="J126">
         <v>7</v>
       </c>
       <c r="K126">
-        <v>-107.0272321155901</v>
+        <v>-107.0272321155902</v>
       </c>
       <c r="L126">
-        <v>232.5344642311802</v>
+        <v>232.5344642311803</v>
       </c>
       <c r="M126">
-        <v>28.0983626670386</v>
+        <v>28.09836266703866</v>
       </c>
       <c r="N126">
-        <v>1.322914260229289e-007</v>
+        <v>1.322914260229254e-07</v>
       </c>
       <c r="O126">
-        <v>0.1363853732523132</v>
+        <v>0.1363853732523117</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -5386,7 +5386,7 @@
         <v>1.143973792147082</v>
       </c>
       <c r="H127">
-        <v>0.1138739962192949</v>
+        <v>0.113873996219294</v>
       </c>
       <c r="I127">
         <v>0.1096568149211403</v>
@@ -5404,10 +5404,10 @@
         <v>28.45310479108014</v>
       </c>
       <c r="N127">
-        <v>1.107899648113915e-007</v>
+        <v>1.107899648113917e-07</v>
       </c>
       <c r="O127">
-        <v>0.01755234749918933</v>
+        <v>0.01755234749918932</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
@@ -5418,16 +5418,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="C128">
-        <v>-0.1636654432780615</v>
+        <v>-0.1636654432780603</v>
       </c>
       <c r="D128">
-        <v>-2.596362504847212</v>
+        <v>-2.596362504847213</v>
       </c>
       <c r="E128">
-        <v>0.7459754234634014</v>
+        <v>0.7459754234634001</v>
       </c>
       <c r="H128">
-        <v>-1.463639159745377</v>
+        <v>-1.463639159745378</v>
       </c>
       <c r="I128">
         <v>0.179399888662325</v>
@@ -5445,7 +5445,7 @@
         <v>28.76980636003964</v>
       </c>
       <c r="N128">
-        <v>9.456480961219135e-008</v>
+        <v>9.456480961219152e-08</v>
       </c>
       <c r="O128">
         <v>0.06217130132837145</v>
@@ -5459,16 +5459,16 @@
         <v>15.59092151141022</v>
       </c>
       <c r="B129">
-        <v>-1.804856827324521</v>
+        <v>-1.80485682732452</v>
       </c>
       <c r="C129">
-        <v>-1.457640434263236</v>
+        <v>-1.457640434263237</v>
       </c>
       <c r="E129">
-        <v>1.160680515295721</v>
+        <v>1.16068051529572</v>
       </c>
       <c r="H129">
-        <v>0.4723082052777345</v>
+        <v>0.4723082052777349</v>
       </c>
       <c r="I129">
         <v>0.1560235228150484</v>
@@ -5486,7 +5486,7 @@
         <v>29.69673372031619</v>
       </c>
       <c r="N129">
-        <v>5.949080336429204e-008</v>
+        <v>5.949080336429214e-08</v>
       </c>
       <c r="O129">
         <v>0.0354554546457696</v>
